--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,15 +504,25 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Ajuste Q</t>
+          <t>Ajuste Q mes 1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Ajuste Monto</t>
+          <t>Ajuste Q mes 2</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ajuste Monto mes 1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ajuste Monto mes 2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -574,12 +584,18 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -637,12 +653,18 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P3" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -700,12 +722,18 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P4" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -763,12 +791,18 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P5" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -826,12 +860,18 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -889,12 +929,18 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P7" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,12 +998,18 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P8" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1021,12 +1073,18 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P9" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1084,12 +1142,18 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P10" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R10" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1153,12 +1217,18 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P11" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1216,12 +1286,18 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P12" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1279,12 +1355,18 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P13" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,12 +1424,18 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P14" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1405,12 +1493,18 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R15" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1468,12 +1562,18 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P16" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1531,12 +1631,18 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R17" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1594,12 +1700,18 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P18" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1657,12 +1769,18 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P19" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R19" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1720,12 +1838,18 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P20" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1783,12 +1907,18 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P21" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1852,12 +1982,18 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1915,12 +2051,18 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1978,12 +2120,18 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P24" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2041,12 +2189,18 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P25" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2104,12 +2258,18 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P26" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2167,12 +2327,18 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P27" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R27" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2236,12 +2402,18 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P28" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2310,7 +2482,13 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2368,12 +2546,18 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P30" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2431,12 +2615,18 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2494,12 +2684,18 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P32" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2557,12 +2753,18 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P33" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2620,12 +2822,18 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P34" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2683,12 +2891,18 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P35" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2746,12 +2960,18 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P36" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2809,12 +3029,18 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P37" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2878,12 +3104,18 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P38" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2947,12 +3179,18 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P39" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R39" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3021,7 +3259,13 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3079,12 +3323,18 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P41" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R41" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3142,12 +3392,18 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P42" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3205,12 +3461,18 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P43" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3268,12 +3530,18 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P44" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q44" t="inlineStr">
+        <v>12.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R44" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>Holalalala</t>
         </is>
@@ -3335,12 +3603,18 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P45" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3398,12 +3672,18 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P46" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R46" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3461,12 +3741,18 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P47" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R47" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3524,12 +3810,18 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P48" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R48" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3598,7 +3890,13 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3656,12 +3954,18 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P50" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R50" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3719,12 +4023,18 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P51" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R51" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3782,12 +4092,18 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P52" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3845,12 +4161,18 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P53" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R53" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3914,12 +4236,18 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P54" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="Q54" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4250000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4250000</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3977,12 +4305,18 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P55" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4040,12 +4374,18 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P56" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q56" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R56" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4103,12 +4443,18 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P57" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4166,12 +4512,18 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P58" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4229,12 +4581,18 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P59" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q59" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R59" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4298,12 +4656,18 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="P60" t="n">
-        <v>46750000</v>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4361,12 +4725,18 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P61" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R61" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4424,12 +4794,18 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P62" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q62" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R62" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4487,12 +4863,18 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P63" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R63" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4550,12 +4932,18 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P64" t="n">
-        <v>26757500</v>
-      </c>
-      <c r="Q64" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="R64" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4624,7 +5012,13 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4682,12 +5076,18 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="P66" t="n">
-        <v>46750000</v>
-      </c>
-      <c r="Q66" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="R66" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4756,7 +5156,13 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4814,12 +5220,18 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P68" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q68" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4877,12 +5289,18 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P69" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R69" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4940,12 +5358,18 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P70" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5003,12 +5427,18 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P71" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R71" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5077,7 +5507,13 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5141,12 +5577,18 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P73" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5204,12 +5646,18 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P74" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q74" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5267,12 +5715,18 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P75" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5330,12 +5784,18 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P76" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q76" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5399,12 +5859,18 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>31</v>
+        <v>15.5</v>
       </c>
       <c r="P77" t="n">
-        <v>32491250</v>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="R77" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5462,12 +5928,18 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P78" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5525,12 +5997,18 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P79" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="Q79" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5588,12 +6066,18 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P80" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q80" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R80" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5651,12 +6135,18 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P81" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5714,12 +6204,18 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P82" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5777,12 +6273,18 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P83" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Q83" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5840,12 +6342,18 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P84" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q84" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5903,12 +6411,18 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P85" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5966,12 +6480,18 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P86" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R86" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6029,12 +6549,18 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P87" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R87" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6092,12 +6618,18 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P88" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R88" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6155,12 +6687,18 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P89" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R89" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6218,12 +6756,18 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P90" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R90" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6287,12 +6831,18 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P91" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6356,12 +6906,18 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P92" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R92" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6419,12 +6975,18 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P93" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q93" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R93" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6482,12 +7044,18 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P94" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q94" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R94" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6551,12 +7119,18 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P95" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R95" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6614,12 +7188,18 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P96" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R96" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6677,12 +7257,18 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P97" t="n">
-        <v>26757500</v>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="R97" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6740,12 +7326,18 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P98" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6803,12 +7395,18 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P99" t="n">
-        <v>26757500</v>
-      </c>
-      <c r="Q99" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="R99" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6866,12 +7464,18 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P100" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q100" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R100" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6935,12 +7539,18 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>31</v>
+        <v>15.5</v>
       </c>
       <c r="P101" t="n">
-        <v>32491250</v>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="R101" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6998,12 +7608,18 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P102" t="n">
-        <v>26757500</v>
-      </c>
-      <c r="Q102" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="R102" t="n">
+        <v>13378750</v>
+      </c>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7061,12 +7677,18 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P103" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q103" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R103" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7130,12 +7752,18 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P104" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q104" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7193,12 +7821,18 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P105" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q105" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R105" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7256,12 +7890,18 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P106" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q106" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R106" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7319,12 +7959,18 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P107" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q107" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7382,12 +8028,18 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P108" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q108" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7451,12 +8103,18 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P109" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q109" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R109" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7514,12 +8172,18 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P110" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q110" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7577,12 +8241,18 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P111" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q111" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7646,12 +8316,18 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P112" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="Q112" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4250000</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4250000</v>
+      </c>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7709,12 +8385,18 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P113" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q113" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7772,12 +8454,18 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P114" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q114" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7835,12 +8523,18 @@
         </is>
       </c>
       <c r="O115" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P115" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q115" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R115" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7909,7 +8603,13 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7967,12 +8667,18 @@
         </is>
       </c>
       <c r="O117" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P117" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q117" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R117" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8030,12 +8736,18 @@
         </is>
       </c>
       <c r="O118" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P118" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q118" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8093,12 +8805,18 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P119" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q119" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8156,12 +8874,18 @@
         </is>
       </c>
       <c r="O120" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P120" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q120" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8219,12 +8943,18 @@
         </is>
       </c>
       <c r="O121" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P121" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q121" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R121" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8282,12 +9012,18 @@
         </is>
       </c>
       <c r="O122" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P122" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q122" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R122" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8345,12 +9081,18 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P123" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q123" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R123" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8408,12 +9150,18 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P124" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q124" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R124" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8471,12 +9219,18 @@
         </is>
       </c>
       <c r="O125" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P125" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q125" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R125" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8540,12 +9294,18 @@
         </is>
       </c>
       <c r="O126" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P126" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q126" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R126" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8603,12 +9363,18 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P127" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q127" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R127" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8666,12 +9432,18 @@
         </is>
       </c>
       <c r="O128" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P128" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q128" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8729,12 +9501,18 @@
         </is>
       </c>
       <c r="O129" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P129" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q129" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R129" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8792,12 +9570,18 @@
         </is>
       </c>
       <c r="O130" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P130" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q130" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R130" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8855,12 +9639,18 @@
         </is>
       </c>
       <c r="O131" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P131" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q131" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R131" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8918,12 +9708,18 @@
         </is>
       </c>
       <c r="O132" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P132" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q132" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R132" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8981,12 +9777,22 @@
         </is>
       </c>
       <c r="O133" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P133" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q133" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R133" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>holaolaolaolaolaolaolaola</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9050,12 +9856,18 @@
         </is>
       </c>
       <c r="O134" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P134" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q134" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R134" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -9113,12 +9925,18 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P135" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q135" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R135" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9176,12 +9994,18 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P136" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q136" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R136" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9239,12 +10063,18 @@
         </is>
       </c>
       <c r="O137" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P137" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q137" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R137" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9308,12 +10138,18 @@
         </is>
       </c>
       <c r="O138" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P138" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q138" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R138" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9371,12 +10207,18 @@
         </is>
       </c>
       <c r="O139" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P139" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q139" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R139" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9440,12 +10282,18 @@
         </is>
       </c>
       <c r="O140" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P140" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q140" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -9503,12 +10351,18 @@
         </is>
       </c>
       <c r="O141" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P141" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q141" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R141" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -9566,12 +10420,18 @@
         </is>
       </c>
       <c r="O142" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P142" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q142" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R142" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9629,12 +10489,18 @@
         </is>
       </c>
       <c r="O143" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P143" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q143" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R143" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9698,12 +10564,18 @@
         </is>
       </c>
       <c r="O144" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P144" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q144" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9761,12 +10633,18 @@
         </is>
       </c>
       <c r="O145" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P145" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q145" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9824,12 +10702,18 @@
         </is>
       </c>
       <c r="O146" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P146" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q146" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R146" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9887,12 +10771,18 @@
         </is>
       </c>
       <c r="O147" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P147" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q147" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R147" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9950,12 +10840,18 @@
         </is>
       </c>
       <c r="O148" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P148" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q148" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R148" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10019,12 +10915,18 @@
         </is>
       </c>
       <c r="O149" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P149" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q149" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10082,12 +10984,18 @@
         </is>
       </c>
       <c r="O150" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P150" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q150" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10151,12 +11059,18 @@
         </is>
       </c>
       <c r="O151" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P151" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q151" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R151" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10214,12 +11128,18 @@
         </is>
       </c>
       <c r="O152" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P152" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q152" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10283,12 +11203,18 @@
         </is>
       </c>
       <c r="O153" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P153" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q153" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R153" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10346,12 +11272,18 @@
         </is>
       </c>
       <c r="O154" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P154" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q154" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -10409,12 +11341,18 @@
         </is>
       </c>
       <c r="O155" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P155" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q155" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R155" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -10472,12 +11410,18 @@
         </is>
       </c>
       <c r="O156" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P156" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q156" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R156" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -10535,12 +11479,18 @@
         </is>
       </c>
       <c r="O157" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P157" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q157" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R157" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -10598,12 +11548,18 @@
         </is>
       </c>
       <c r="O158" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P158" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q158" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R158" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -10661,12 +11617,18 @@
         </is>
       </c>
       <c r="O159" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P159" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q159" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10724,12 +11686,18 @@
         </is>
       </c>
       <c r="O160" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P160" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q160" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10787,12 +11755,18 @@
         </is>
       </c>
       <c r="O161" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P161" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q161" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R161" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10850,12 +11824,18 @@
         </is>
       </c>
       <c r="O162" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P162" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q162" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R162" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10913,12 +11893,18 @@
         </is>
       </c>
       <c r="O163" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P163" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q163" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10976,12 +11962,18 @@
         </is>
       </c>
       <c r="O164" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P164" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q164" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -11039,12 +12031,18 @@
         </is>
       </c>
       <c r="O165" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P165" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q165" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R165" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11102,12 +12100,18 @@
         </is>
       </c>
       <c r="O166" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P166" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q166" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R166" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11165,12 +12169,18 @@
         </is>
       </c>
       <c r="O167" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P167" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q167" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R167" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11234,12 +12244,18 @@
         </is>
       </c>
       <c r="O168" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P168" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q168" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R168" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11297,12 +12313,18 @@
         </is>
       </c>
       <c r="O169" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P169" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q169" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R169" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -11360,12 +12382,18 @@
         </is>
       </c>
       <c r="O170" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P170" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q170" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R170" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -11423,12 +12451,18 @@
         </is>
       </c>
       <c r="O171" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P171" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q171" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R171" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -11492,12 +12526,18 @@
         </is>
       </c>
       <c r="O172" t="n">
-        <v>31</v>
+        <v>15.5</v>
       </c>
       <c r="P172" t="n">
-        <v>32491250</v>
-      </c>
-      <c r="Q172" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="R172" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="S172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -11555,12 +12595,18 @@
         </is>
       </c>
       <c r="O173" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P173" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q173" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R173" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -11618,12 +12664,18 @@
         </is>
       </c>
       <c r="O174" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P174" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q174" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R174" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -11687,12 +12739,18 @@
         </is>
       </c>
       <c r="O175" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P175" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q175" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R175" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -11750,12 +12808,18 @@
         </is>
       </c>
       <c r="O176" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P176" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q176" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R176" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11813,12 +12877,18 @@
         </is>
       </c>
       <c r="O177" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P177" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q177" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R177" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11876,12 +12946,18 @@
         </is>
       </c>
       <c r="O178" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P178" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q178" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R178" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11939,12 +13015,18 @@
         </is>
       </c>
       <c r="O179" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P179" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q179" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R179" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -12002,12 +13084,18 @@
         </is>
       </c>
       <c r="O180" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P180" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q180" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12071,12 +13159,18 @@
         </is>
       </c>
       <c r="O181" t="n">
-        <v>31</v>
+        <v>15.5</v>
       </c>
       <c r="P181" t="n">
-        <v>32491250</v>
-      </c>
-      <c r="Q181" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="R181" t="n">
+        <v>16245625</v>
+      </c>
+      <c r="S181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -12145,7 +13239,13 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -12203,12 +13303,18 @@
         </is>
       </c>
       <c r="O183" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P183" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q183" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R183" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12266,12 +13372,18 @@
         </is>
       </c>
       <c r="O184" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P184" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q184" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -12329,12 +13441,18 @@
         </is>
       </c>
       <c r="O185" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P185" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q185" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R185" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -12392,12 +13510,18 @@
         </is>
       </c>
       <c r="O186" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P186" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q186" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R186" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -12455,12 +13579,18 @@
         </is>
       </c>
       <c r="O187" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P187" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q187" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R187" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -12518,12 +13648,18 @@
         </is>
       </c>
       <c r="O188" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P188" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="Q188" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="R188" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="S188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -12581,12 +13717,18 @@
         </is>
       </c>
       <c r="O189" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P189" t="n">
-        <v>38225000</v>
-      </c>
-      <c r="Q189" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="R189" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="S189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -12650,12 +13792,18 @@
         </is>
       </c>
       <c r="O190" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="P190" t="n">
-        <v>46750000</v>
-      </c>
-      <c r="Q190" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="R190" t="n">
+        <v>23375000</v>
+      </c>
+      <c r="S190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -12719,12 +13867,18 @@
         </is>
       </c>
       <c r="O191" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P191" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q191" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R191" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -12782,12 +13936,18 @@
         </is>
       </c>
       <c r="O192" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P192" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q192" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R192" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12845,12 +14005,18 @@
         </is>
       </c>
       <c r="O193" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P193" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q193" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R193" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12908,12 +14074,18 @@
         </is>
       </c>
       <c r="O194" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P194" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q194" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R194" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12971,12 +14143,18 @@
         </is>
       </c>
       <c r="O195" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P195" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q195" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R195" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -13034,12 +14212,18 @@
         </is>
       </c>
       <c r="O196" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P196" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="Q196" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R196" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -13097,12 +14281,18 @@
         </is>
       </c>
       <c r="O197" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P197" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q197" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R197" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -13160,12 +14350,18 @@
         </is>
       </c>
       <c r="O198" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P198" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q198" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R198" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -13223,12 +14419,18 @@
         </is>
       </c>
       <c r="O199" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P199" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q199" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R199" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -13286,12 +14488,18 @@
         </is>
       </c>
       <c r="O200" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="P200" t="n">
-        <v>17150000</v>
-      </c>
-      <c r="Q200" t="inlineStr"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="R200" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="S200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J2" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3250000</v>
+        <v>3900000</v>
       </c>
       <c r="R2" t="n">
-        <v>3250000</v>
+        <v>3900000</v>
       </c>
       <c r="S2" t="inlineStr"/>
     </row>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J6" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R6" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J8" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q8" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R8" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J12" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R12" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
@@ -1812,16 +1812,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J20" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R20" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J22" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R22" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S22" t="inlineStr"/>
     </row>
@@ -2094,16 +2094,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J24" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R24" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S24" t="inlineStr"/>
     </row>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J31" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
@@ -2615,16 +2615,16 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R31" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S31" t="inlineStr"/>
     </row>
@@ -2658,16 +2658,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J32" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R32" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S32" t="inlineStr"/>
     </row>
@@ -2727,16 +2727,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J33" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
@@ -2753,16 +2753,16 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q33" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R33" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S33" t="inlineStr"/>
     </row>
@@ -2865,16 +2865,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J35" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q35" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R35" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S35" t="inlineStr"/>
     </row>
@@ -2934,16 +2934,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
@@ -2960,16 +2960,16 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R36" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S36" t="inlineStr"/>
     </row>
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J37" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
@@ -3029,16 +3029,16 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q37" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R37" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S37" t="inlineStr"/>
     </row>
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I40" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J40" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3366,16 +3366,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J42" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
@@ -3392,16 +3392,16 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R42" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S42" t="inlineStr"/>
     </row>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H43" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I43" t="n">
         <v>8575000</v>
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P43" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q43" t="n">
         <v>8575000</v>
@@ -3577,16 +3577,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
@@ -3603,16 +3603,16 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P45" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q45" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R45" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S45" t="inlineStr"/>
     </row>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J54" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="P54" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>4250000</v>
+        <v>5100000</v>
       </c>
       <c r="R54" t="n">
-        <v>4250000</v>
+        <v>5100000</v>
       </c>
       <c r="S54" t="inlineStr"/>
     </row>
@@ -4279,16 +4279,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I55" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J55" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q55" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R55" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S55" t="inlineStr"/>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4975,16 +4975,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H65" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I65" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J65" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5194,16 +5194,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H68" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J68" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
@@ -5220,16 +5220,16 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P68" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q68" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R68" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S68" t="inlineStr"/>
     </row>
@@ -5332,16 +5332,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I70" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J70" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
@@ -5358,16 +5358,16 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P70" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q70" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R70" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S70" t="inlineStr"/>
     </row>
@@ -5470,16 +5470,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J72" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5545,16 +5545,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H73" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J73" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5577,16 +5577,16 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P73" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q73" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R73" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S73" t="inlineStr"/>
     </row>
@@ -5620,16 +5620,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I74" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J74" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
@@ -5646,16 +5646,16 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q74" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R74" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S74" t="inlineStr"/>
     </row>
@@ -5689,16 +5689,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H75" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I75" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J75" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
@@ -5715,16 +5715,16 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P75" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q75" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R75" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S75" t="inlineStr"/>
     </row>
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I76" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J76" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
@@ -5784,16 +5784,16 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q76" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R76" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S76" t="inlineStr"/>
     </row>
@@ -5902,16 +5902,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I78" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J78" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
@@ -5928,16 +5928,16 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q78" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R78" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S78" t="inlineStr"/>
     </row>
@@ -5971,16 +5971,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H79" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I79" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J79" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
@@ -5997,16 +5997,16 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="P79" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>4500000</v>
+        <v>5400000</v>
       </c>
       <c r="R79" t="n">
-        <v>4500000</v>
+        <v>5400000</v>
       </c>
       <c r="S79" t="inlineStr"/>
     </row>
@@ -6109,16 +6109,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I81" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J81" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
@@ -6135,16 +6135,16 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q81" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R81" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S81" t="inlineStr"/>
     </row>
@@ -6178,16 +6178,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H82" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I82" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J82" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P82" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q82" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="R82" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="S82" t="inlineStr"/>
     </row>
@@ -6247,16 +6247,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I83" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J83" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
@@ -6273,16 +6273,16 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P83" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q83" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="R83" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="S83" t="inlineStr"/>
     </row>
@@ -6316,16 +6316,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J84" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
@@ -6342,16 +6342,16 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q84" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R84" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S84" t="inlineStr"/>
     </row>
@@ -6385,16 +6385,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H85" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I85" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J85" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
@@ -6411,16 +6411,16 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P85" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q85" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R85" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S85" t="inlineStr"/>
     </row>
@@ -6454,10 +6454,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H86" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I86" t="n">
         <v>8575000</v>
@@ -6480,10 +6480,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P86" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q86" t="n">
         <v>8575000</v>
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H87" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I87" t="n">
         <v>8575000</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P87" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q87" t="n">
         <v>8575000</v>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
         <v>8575000</v>
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P88" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q88" t="n">
         <v>8575000</v>
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
         <v>8575000</v>
@@ -6687,10 +6687,10 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q89" t="n">
         <v>8575000</v>
@@ -6799,16 +6799,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H91" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I91" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J91" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -6831,16 +6831,16 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P91" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q91" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R91" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S91" t="inlineStr"/>
     </row>
@@ -7300,16 +7300,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H98" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I98" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J98" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P98" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q98" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R98" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S98" t="inlineStr"/>
     </row>
@@ -7720,16 +7720,16 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H104" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I104" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J104" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -7752,16 +7752,16 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P104" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q104" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R104" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S104" t="inlineStr"/>
     </row>
@@ -7933,16 +7933,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I107" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J107" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
@@ -7959,16 +7959,16 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q107" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R107" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S107" t="inlineStr"/>
     </row>
@@ -8002,16 +8002,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H108" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J108" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
@@ -8028,16 +8028,16 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P108" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q108" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R108" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S108" t="inlineStr"/>
     </row>
@@ -8146,16 +8146,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H110" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I110" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J110" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P110" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q110" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R110" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S110" t="inlineStr"/>
     </row>
@@ -8215,16 +8215,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I111" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J111" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
@@ -8241,16 +8241,16 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q111" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R111" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S111" t="inlineStr"/>
     </row>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H112" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I112" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J112" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -8316,16 +8316,16 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="P112" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>4250000</v>
+        <v>5100000</v>
       </c>
       <c r="R112" t="n">
-        <v>4250000</v>
+        <v>5100000</v>
       </c>
       <c r="S112" t="inlineStr"/>
     </row>
@@ -8359,16 +8359,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I113" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J113" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
@@ -8385,16 +8385,16 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P113" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q113" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R113" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S113" t="inlineStr"/>
     </row>
@@ -8428,16 +8428,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H114" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I114" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J114" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
@@ -8454,16 +8454,16 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P114" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q114" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R114" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S114" t="inlineStr"/>
     </row>
@@ -8710,16 +8710,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I118" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J118" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
@@ -8736,16 +8736,16 @@
         </is>
       </c>
       <c r="O118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q118" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R118" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S118" t="inlineStr"/>
     </row>
@@ -8779,16 +8779,16 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H119" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I119" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J119" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
@@ -8805,16 +8805,16 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P119" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q119" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R119" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S119" t="inlineStr"/>
     </row>
@@ -8848,16 +8848,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H120" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I120" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J120" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
@@ -8874,16 +8874,16 @@
         </is>
       </c>
       <c r="O120" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P120" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q120" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R120" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S120" t="inlineStr"/>
     </row>
@@ -8917,10 +8917,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H121" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I121" t="n">
         <v>8575000</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="O121" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P121" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q121" t="n">
         <v>8575000</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H122" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I122" t="n">
         <v>8575000</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="O122" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P122" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q122" t="n">
         <v>8575000</v>
@@ -9055,10 +9055,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H123" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I123" t="n">
         <v>8575000</v>
@@ -9081,10 +9081,10 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P123" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q123" t="n">
         <v>8575000</v>
@@ -9124,10 +9124,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H124" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I124" t="n">
         <v>8575000</v>
@@ -9150,10 +9150,10 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P124" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q124" t="n">
         <v>8575000</v>
@@ -9262,16 +9262,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I126" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J126" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -9294,16 +9294,16 @@
         </is>
       </c>
       <c r="O126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q126" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R126" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S126" t="inlineStr"/>
     </row>
@@ -9406,16 +9406,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I128" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J128" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
@@ -9432,16 +9432,16 @@
         </is>
       </c>
       <c r="O128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P128" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q128" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R128" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S128" t="inlineStr"/>
     </row>
@@ -10250,16 +10250,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I140" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J140" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -10282,16 +10282,16 @@
         </is>
       </c>
       <c r="O140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q140" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R140" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S140" t="inlineStr"/>
     </row>
@@ -10532,16 +10532,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H144" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I144" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J144" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="O144" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P144" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q144" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R144" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S144" t="inlineStr"/>
     </row>
@@ -10607,16 +10607,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I145" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J145" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
@@ -10633,16 +10633,16 @@
         </is>
       </c>
       <c r="O145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P145" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q145" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R145" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S145" t="inlineStr"/>
     </row>
@@ -10814,16 +10814,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H148" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I148" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J148" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="O148" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P148" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q148" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R148" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S148" t="inlineStr"/>
     </row>
@@ -10883,16 +10883,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I149" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J149" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -10915,16 +10915,16 @@
         </is>
       </c>
       <c r="O149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q149" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R149" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S149" t="inlineStr"/>
     </row>
@@ -10958,16 +10958,16 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H150" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I150" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J150" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
@@ -10984,16 +10984,16 @@
         </is>
       </c>
       <c r="O150" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P150" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q150" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R150" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S150" t="inlineStr"/>
     </row>
@@ -11102,16 +11102,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I152" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J152" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
@@ -11128,16 +11128,16 @@
         </is>
       </c>
       <c r="O152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q152" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R152" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S152" t="inlineStr"/>
     </row>
@@ -11246,16 +11246,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H154" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I154" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J154" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
@@ -11272,16 +11272,16 @@
         </is>
       </c>
       <c r="O154" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P154" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q154" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R154" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S154" t="inlineStr"/>
     </row>
@@ -11384,16 +11384,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I156" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J156" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
@@ -11410,16 +11410,16 @@
         </is>
       </c>
       <c r="O156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q156" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R156" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S156" t="inlineStr"/>
     </row>
@@ -11591,16 +11591,16 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H159" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I159" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J159" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
@@ -11617,16 +11617,16 @@
         </is>
       </c>
       <c r="O159" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P159" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q159" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R159" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S159" t="inlineStr"/>
     </row>
@@ -11660,16 +11660,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H160" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I160" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J160" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
@@ -11686,16 +11686,16 @@
         </is>
       </c>
       <c r="O160" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P160" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q160" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R160" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S160" t="inlineStr"/>
     </row>
@@ -11729,16 +11729,16 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H161" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I161" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J161" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
@@ -11755,16 +11755,16 @@
         </is>
       </c>
       <c r="O161" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P161" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q161" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R161" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S161" t="inlineStr"/>
     </row>
@@ -11798,16 +11798,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H162" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I162" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J162" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
@@ -11824,16 +11824,16 @@
         </is>
       </c>
       <c r="O162" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P162" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q162" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R162" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S162" t="inlineStr"/>
     </row>
@@ -11867,16 +11867,16 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I163" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J163" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
@@ -11893,16 +11893,16 @@
         </is>
       </c>
       <c r="O163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q163" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R163" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S163" t="inlineStr"/>
     </row>
@@ -11936,16 +11936,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H164" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I164" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J164" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
@@ -11962,16 +11962,16 @@
         </is>
       </c>
       <c r="O164" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P164" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q164" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R164" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S164" t="inlineStr"/>
     </row>
@@ -12425,16 +12425,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I171" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J171" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
@@ -12451,16 +12451,16 @@
         </is>
       </c>
       <c r="O171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q171" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R171" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S171" t="inlineStr"/>
     </row>
@@ -12920,16 +12920,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I178" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J178" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
@@ -12946,16 +12946,16 @@
         </is>
       </c>
       <c r="O178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q178" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R178" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S178" t="inlineStr"/>
     </row>
@@ -13058,16 +13058,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H180" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I180" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J180" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="O180" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P180" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q180" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R180" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S180" t="inlineStr"/>
     </row>
@@ -13346,16 +13346,16 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H184" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I184" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J184" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
@@ -13372,16 +13372,16 @@
         </is>
       </c>
       <c r="O184" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P184" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q184" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R184" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S184" t="inlineStr"/>
     </row>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H186" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I186" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J186" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
@@ -13510,16 +13510,16 @@
         </is>
       </c>
       <c r="O186" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P186" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q186" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R186" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S186" t="inlineStr"/>
     </row>
@@ -13835,16 +13835,16 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H191" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I191" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J191" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -13867,16 +13867,16 @@
         </is>
       </c>
       <c r="O191" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P191" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q191" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R191" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S191" t="inlineStr"/>
     </row>
@@ -13910,16 +13910,16 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I192" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J192" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
@@ -13936,16 +13936,16 @@
         </is>
       </c>
       <c r="O192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q192" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R192" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S192" t="inlineStr"/>
     </row>
@@ -13979,16 +13979,16 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H193" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I193" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J193" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
@@ -14005,16 +14005,16 @@
         </is>
       </c>
       <c r="O193" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P193" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q193" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R193" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S193" t="inlineStr"/>
     </row>
@@ -14048,16 +14048,16 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I194" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J194" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
@@ -14074,16 +14074,16 @@
         </is>
       </c>
       <c r="O194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q194" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R194" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S194" t="inlineStr"/>
     </row>
@@ -14117,16 +14117,16 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I195" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J195" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
@@ -14143,16 +14143,16 @@
         </is>
       </c>
       <c r="O195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q195" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R195" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S195" t="inlineStr"/>
     </row>
@@ -14186,16 +14186,16 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H196" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I196" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J196" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
@@ -14212,16 +14212,16 @@
         </is>
       </c>
       <c r="O196" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P196" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q196" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="R196" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="S196" t="inlineStr"/>
     </row>
@@ -14255,10 +14255,10 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H197" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I197" t="n">
         <v>8575000</v>
@@ -14281,10 +14281,10 @@
         </is>
       </c>
       <c r="O197" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P197" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q197" t="n">
         <v>8575000</v>
@@ -14324,10 +14324,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H198" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I198" t="n">
         <v>8575000</v>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="O198" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P198" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q198" t="n">
         <v>8575000</v>
@@ -14393,10 +14393,10 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H199" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I199" t="n">
         <v>8575000</v>
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="O199" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P199" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q199" t="n">
         <v>8575000</v>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H200" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I200" t="n">
         <v>8575000</v>
@@ -14488,10 +14488,10 @@
         </is>
       </c>
       <c r="O200" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P200" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q200" t="n">
         <v>8575000</v>

--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -585,12 +585,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>prueba 100</t>
+          <t>LIcencia rre especial aprobada por el directorio</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>101</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>3900000</v>
+        <v>3300000</v>
       </c>
       <c r="T2" t="n">
-        <v>3900000</v>
+        <v>3300000</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
@@ -662,8 +662,16 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>LIcencia rre especial aprobada por el directorio</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>No</t>
@@ -675,16 +683,16 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="S3" t="n">
-        <v>27500000</v>
+        <v>24750000</v>
       </c>
       <c r="T3" t="n">
-        <v>27500000</v>
+        <v>24750000</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
@@ -12366,12 +12374,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>prueba 100</t>
+          <t>LIcencia rre especial aprobada por el directorio</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>101</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12385,16 +12393,16 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="R165" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="S165" t="n">
-        <v>19112500</v>
+        <v>16245625</v>
       </c>
       <c r="T165" t="n">
-        <v>19112500</v>
+        <v>16245625</v>
       </c>
       <c r="U165" t="inlineStr"/>
     </row>

--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -568,52 +568,48 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J2" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>5000000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3553-Vacaciones</t>
+        </is>
+      </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>LIcencia rre especial aprobada por el directorio</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>3300000</v>
+        <v>4300000</v>
       </c>
       <c r="T2" t="n">
-        <v>3300000</v>
+        <v>4300000</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
@@ -647,34 +643,30 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J3" t="n">
-        <v>27500000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4110-Licencias por Enfermedad</t>
+        </is>
+      </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LIcencia rre especial aprobada por el directorio</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -683,16 +675,16 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>24750000</v>
+        <v>16000000</v>
       </c>
       <c r="T3" t="n">
-        <v>24750000</v>
+        <v>16000000</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
@@ -726,23 +718,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J4" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sigue vivoooo</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>No</t>
@@ -754,16 +754,16 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>27500000</v>
+        <v>18000000</v>
       </c>
       <c r="T4" t="n">
-        <v>27500000</v>
+        <v>18000000</v>
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J5" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T5" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J6" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
@@ -896,16 +896,16 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T6" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
@@ -939,16 +939,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J7" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T7" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
@@ -1010,16 +1010,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J8" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
@@ -1038,16 +1038,16 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S8" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T8" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J9" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S9" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T9" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U9" t="inlineStr"/>
     </row>
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J10" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S10" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T10" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J11" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S11" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T11" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J12" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T12" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J13" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T13" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J14" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
@@ -1476,16 +1476,16 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T14" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J15" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S15" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T15" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
@@ -1590,16 +1590,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J16" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T16" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U16" t="inlineStr"/>
     </row>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J17" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
@@ -1689,16 +1689,16 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T17" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J18" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
@@ -1760,16 +1760,16 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T18" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U18" t="inlineStr"/>
     </row>
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I19" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J19" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
@@ -1831,16 +1831,16 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S19" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T19" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U19" t="inlineStr"/>
     </row>
@@ -1874,16 +1874,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J20" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -1902,16 +1902,16 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S20" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T20" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -1945,16 +1945,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J21" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T21" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -2016,16 +2016,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I22" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J22" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2050,16 +2050,16 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R22" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S22" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T22" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U22" t="inlineStr"/>
     </row>
@@ -2093,16 +2093,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J23" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T23" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -2164,16 +2164,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J24" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S24" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T24" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
@@ -2235,16 +2235,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J25" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
@@ -2263,16 +2263,16 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T25" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
@@ -2306,16 +2306,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J26" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S26" t="n">
-        <v>27500000</v>
+        <v>16000000</v>
       </c>
       <c r="T26" t="n">
-        <v>27500000</v>
+        <v>16000000</v>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
@@ -2377,16 +2377,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J27" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S27" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T27" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U27" t="inlineStr"/>
     </row>
@@ -2448,16 +2448,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J28" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2482,16 +2482,16 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R28" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S28" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T28" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U28" t="inlineStr"/>
     </row>
@@ -2525,16 +2525,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J29" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2602,16 +2602,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J30" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
@@ -2630,16 +2630,16 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S30" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T30" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U30" t="inlineStr"/>
     </row>
@@ -2673,16 +2673,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I31" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J31" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R31" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S31" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T31" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H32" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I32" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J32" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R32" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S32" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T32" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U32" t="inlineStr"/>
     </row>
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I33" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J33" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
@@ -2843,16 +2843,16 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R33" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S33" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T33" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
@@ -2886,16 +2886,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J34" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
@@ -2914,16 +2914,16 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S34" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T34" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H35" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J35" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -2985,16 +2985,16 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R35" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S35" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T35" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J36" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
@@ -3056,16 +3056,16 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S36" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T36" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U36" t="inlineStr"/>
     </row>
@@ -3099,16 +3099,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J37" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R37" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S37" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T37" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
@@ -3170,16 +3170,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J38" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R38" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S38" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T38" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U38" t="inlineStr"/>
     </row>
@@ -3247,16 +3247,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J39" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3281,16 +3281,16 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S39" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="T39" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="U39" t="inlineStr"/>
     </row>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J40" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3401,16 +3401,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J41" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
@@ -3429,16 +3429,16 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S41" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T41" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -3472,16 +3472,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U42" t="inlineStr"/>
     </row>
@@ -3543,16 +3543,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J43" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
@@ -3571,16 +3571,16 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S43" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T43" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U43" t="inlineStr"/>
     </row>
@@ -3614,16 +3614,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J44" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
@@ -3642,16 +3642,16 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S44" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T44" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -3689,16 +3689,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J45" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
@@ -3717,16 +3717,16 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R45" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S45" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T45" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U45" t="inlineStr"/>
     </row>
@@ -3760,16 +3760,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J46" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S46" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T46" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U46" t="inlineStr"/>
     </row>
@@ -3831,16 +3831,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J47" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
@@ -3859,16 +3859,16 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S47" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T47" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U47" t="inlineStr"/>
     </row>
@@ -3902,16 +3902,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J48" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
@@ -3930,16 +3930,16 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S48" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T48" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U48" t="inlineStr"/>
     </row>
@@ -3973,16 +3973,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J49" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4050,16 +4050,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J50" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
@@ -4078,16 +4078,16 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S50" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T50" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U50" t="inlineStr"/>
     </row>
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I51" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J51" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
@@ -4149,16 +4149,16 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S51" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T51" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U51" t="inlineStr"/>
     </row>
@@ -4192,16 +4192,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J52" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
@@ -4220,16 +4220,16 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R52" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S52" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T52" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U52" t="inlineStr"/>
     </row>
@@ -4263,16 +4263,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J53" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
@@ -4291,16 +4291,16 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S53" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T53" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U53" t="inlineStr"/>
     </row>
@@ -4334,16 +4334,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I54" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J54" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4368,16 +4368,16 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="R54" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="S54" t="n">
-        <v>5100000</v>
+        <v>4300000</v>
       </c>
       <c r="T54" t="n">
-        <v>5100000</v>
+        <v>4300000</v>
       </c>
       <c r="U54" t="inlineStr"/>
     </row>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I55" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J55" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
@@ -4439,16 +4439,16 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R55" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S55" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T55" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U55" t="inlineStr"/>
     </row>
@@ -4482,16 +4482,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J56" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
@@ -4510,16 +4510,16 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S56" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T56" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U56" t="inlineStr"/>
     </row>
@@ -4553,16 +4553,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J57" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
@@ -4581,16 +4581,16 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S57" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T57" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U57" t="inlineStr"/>
     </row>
@@ -4624,16 +4624,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J58" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
@@ -4652,16 +4652,16 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S58" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T58" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U58" t="inlineStr"/>
     </row>
@@ -4695,16 +4695,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I59" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J59" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S59" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T59" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U59" t="inlineStr"/>
     </row>
@@ -4766,16 +4766,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H60" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I60" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J60" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4796,20 +4796,20 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="R60" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="S60" t="n">
-        <v>23375000</v>
+        <v>18600000</v>
       </c>
       <c r="T60" t="n">
-        <v>23375000</v>
+        <v>18600000</v>
       </c>
       <c r="U60" t="inlineStr"/>
     </row>
@@ -4843,16 +4843,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J61" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
@@ -4871,16 +4871,16 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S61" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T61" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U61" t="inlineStr"/>
     </row>
@@ -4914,16 +4914,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J62" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
@@ -4942,16 +4942,16 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S62" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T62" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U62" t="inlineStr"/>
     </row>
@@ -4985,16 +4985,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H63" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I63" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J63" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
@@ -5013,16 +5013,16 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R63" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S63" t="n">
-        <v>19112500</v>
+        <v>12000000</v>
       </c>
       <c r="T63" t="n">
-        <v>19112500</v>
+        <v>12000000</v>
       </c>
       <c r="U63" t="inlineStr"/>
     </row>
@@ -5056,16 +5056,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I64" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J64" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
@@ -5080,20 +5080,20 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="R64" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="S64" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="T64" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="U64" t="inlineStr"/>
     </row>
@@ -5127,16 +5127,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H65" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J65" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5204,16 +5204,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J66" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
@@ -5228,20 +5228,20 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S66" t="n">
-        <v>23375000</v>
+        <v>20000000</v>
       </c>
       <c r="T66" t="n">
-        <v>23375000</v>
+        <v>20000000</v>
       </c>
       <c r="U66" t="inlineStr"/>
     </row>
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I67" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J67" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5309,16 +5309,16 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="U67" t="inlineStr"/>
     </row>
@@ -5352,16 +5352,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H68" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I68" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J68" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
@@ -5380,16 +5380,16 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R68" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S68" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T68" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U68" t="inlineStr"/>
     </row>
@@ -5423,16 +5423,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I69" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J69" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
@@ -5451,16 +5451,16 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S69" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T69" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U69" t="inlineStr"/>
     </row>
@@ -5494,16 +5494,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H70" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I70" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J70" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
@@ -5522,16 +5522,16 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R70" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S70" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T70" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U70" t="inlineStr"/>
     </row>
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J71" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
@@ -5593,16 +5593,16 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S71" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T71" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U71" t="inlineStr"/>
     </row>
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H72" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I72" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J72" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5713,16 +5713,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I73" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J73" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5747,16 +5747,16 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R73" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S73" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T73" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U73" t="inlineStr"/>
     </row>
@@ -5790,16 +5790,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H74" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I74" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J74" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
@@ -5818,16 +5818,16 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R74" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S74" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T74" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U74" t="inlineStr"/>
     </row>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I75" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J75" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
@@ -5889,16 +5889,16 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R75" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S75" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T75" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U75" t="inlineStr"/>
     </row>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I76" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J76" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
@@ -5960,16 +5960,16 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R76" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S76" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T76" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U76" t="inlineStr"/>
     </row>
@@ -6003,16 +6003,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H77" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I77" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J77" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6037,16 +6037,16 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="R77" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="S77" t="n">
-        <v>16245625</v>
+        <v>12900000</v>
       </c>
       <c r="T77" t="n">
-        <v>16245625</v>
+        <v>12900000</v>
       </c>
       <c r="U77" t="inlineStr"/>
     </row>
@@ -6080,16 +6080,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I78" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J78" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
@@ -6108,16 +6108,16 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R78" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S78" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T78" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U78" t="inlineStr"/>
     </row>
@@ -6151,16 +6151,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H79" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I79" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J79" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
@@ -6179,16 +6179,16 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="R79" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="S79" t="n">
-        <v>5400000</v>
+        <v>4000000</v>
       </c>
       <c r="T79" t="n">
-        <v>5400000</v>
+        <v>4000000</v>
       </c>
       <c r="U79" t="inlineStr"/>
     </row>
@@ -6222,16 +6222,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I80" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J80" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
@@ -6250,16 +6250,16 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S80" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T80" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U80" t="inlineStr"/>
     </row>
@@ -6293,16 +6293,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H81" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I81" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J81" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
@@ -6321,16 +6321,16 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R81" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S81" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T81" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U81" t="inlineStr"/>
     </row>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H82" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I82" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J82" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
@@ -6388,20 +6388,20 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R82" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="S82" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="T82" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="U82" t="inlineStr"/>
     </row>
@@ -6435,16 +6435,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H83" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I83" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J83" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
@@ -6459,20 +6459,20 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R83" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="S83" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="T83" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="U83" t="inlineStr"/>
     </row>
@@ -6506,16 +6506,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I84" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J84" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
@@ -6534,16 +6534,16 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R84" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S84" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T84" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U84" t="inlineStr"/>
     </row>
@@ -6577,16 +6577,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H85" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I85" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J85" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
@@ -6605,16 +6605,16 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R85" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S85" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T85" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U85" t="inlineStr"/>
     </row>
@@ -6648,16 +6648,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I86" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J86" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S86" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T86" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U86" t="inlineStr"/>
     </row>
@@ -6719,16 +6719,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I87" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J87" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
@@ -6747,16 +6747,16 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R87" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S87" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T87" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U87" t="inlineStr"/>
     </row>
@@ -6790,16 +6790,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I88" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J88" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
@@ -6818,16 +6818,16 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S88" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T88" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U88" t="inlineStr"/>
     </row>
@@ -6861,16 +6861,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I89" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J89" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S89" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T89" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
@@ -6932,16 +6932,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H90" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J90" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
@@ -6960,16 +6960,16 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R90" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S90" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T90" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I91" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J91" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7037,16 +7037,16 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R91" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S91" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T91" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
@@ -7080,16 +7080,16 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J92" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7114,16 +7114,16 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R92" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S92" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T92" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U92" t="inlineStr"/>
     </row>
@@ -7157,16 +7157,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I93" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J93" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
@@ -7185,16 +7185,16 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S93" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T93" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U93" t="inlineStr"/>
     </row>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I94" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J94" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
@@ -7256,16 +7256,16 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S94" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T94" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H95" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I95" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J95" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -7333,16 +7333,16 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R95" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S95" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T95" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
@@ -7376,16 +7376,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I96" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J96" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S96" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T96" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
@@ -7447,16 +7447,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H97" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I97" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J97" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
@@ -7471,20 +7471,20 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="R97" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="S97" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="T97" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="U97" t="inlineStr"/>
     </row>
@@ -7518,16 +7518,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H98" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I98" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J98" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
@@ -7546,16 +7546,16 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R98" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S98" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T98" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U98" t="inlineStr"/>
     </row>
@@ -7589,16 +7589,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H99" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I99" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J99" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
@@ -7613,20 +7613,20 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="R99" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="S99" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="T99" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
@@ -7660,16 +7660,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I100" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J100" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
@@ -7688,16 +7688,16 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S100" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T100" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
@@ -7731,16 +7731,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I101" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J101" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -7765,16 +7765,16 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="R101" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="S101" t="n">
-        <v>16245625</v>
+        <v>11850000</v>
       </c>
       <c r="T101" t="n">
-        <v>16245625</v>
+        <v>11850000</v>
       </c>
       <c r="U101" t="inlineStr"/>
     </row>
@@ -7808,16 +7808,16 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I102" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J102" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
@@ -7832,20 +7832,20 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="R102" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="S102" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="T102" t="n">
-        <v>13378750</v>
+        <v>15000000</v>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
@@ -7879,16 +7879,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I103" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J103" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
@@ -7907,16 +7907,16 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S103" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T103" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
@@ -7950,16 +7950,16 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H104" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I104" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J104" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -7984,16 +7984,16 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R104" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S104" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T104" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I105" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J105" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
@@ -8055,16 +8055,16 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S105" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T105" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
@@ -8098,16 +8098,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I106" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J106" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
@@ -8126,16 +8126,16 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S106" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T106" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
@@ -8169,16 +8169,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H107" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I107" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J107" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
@@ -8197,16 +8197,16 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R107" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S107" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T107" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
@@ -8240,16 +8240,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H108" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I108" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J108" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
@@ -8268,16 +8268,16 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R108" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S108" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T108" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
@@ -8311,16 +8311,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I109" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J109" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -8345,16 +8345,16 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R109" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S109" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T109" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
@@ -8388,16 +8388,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H110" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I110" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J110" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
@@ -8416,16 +8416,16 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R110" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S110" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T110" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U110" t="inlineStr"/>
     </row>
@@ -8459,16 +8459,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H111" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I111" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J111" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
@@ -8487,16 +8487,16 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R111" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S111" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T111" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U111" t="inlineStr"/>
     </row>
@@ -8530,16 +8530,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H112" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I112" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J112" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -8564,16 +8564,16 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="R112" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="S112" t="n">
-        <v>5100000</v>
+        <v>4300000</v>
       </c>
       <c r="T112" t="n">
-        <v>5100000</v>
+        <v>4300000</v>
       </c>
       <c r="U112" t="inlineStr"/>
     </row>
@@ -8607,16 +8607,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H113" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I113" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J113" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
@@ -8635,16 +8635,16 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R113" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S113" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T113" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H114" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I114" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J114" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
@@ -8706,16 +8706,16 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R114" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S114" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T114" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
@@ -8749,16 +8749,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H115" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I115" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J115" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
@@ -8777,16 +8777,16 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R115" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S115" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T115" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
@@ -8820,16 +8820,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I116" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J116" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -8897,16 +8897,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I117" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J117" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S117" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T117" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
@@ -8968,16 +8968,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H118" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I118" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J118" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
@@ -8996,16 +8996,16 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R118" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S118" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T118" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U118" t="inlineStr"/>
     </row>
@@ -9039,16 +9039,16 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H119" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I119" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J119" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
@@ -9067,16 +9067,16 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R119" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S119" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T119" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
@@ -9110,16 +9110,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H120" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I120" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J120" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
@@ -9138,16 +9138,16 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R120" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S120" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T120" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
@@ -9181,16 +9181,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H121" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I121" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J121" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
@@ -9209,16 +9209,16 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R121" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S121" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T121" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
@@ -9252,16 +9252,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I122" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J122" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
@@ -9280,16 +9280,16 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R122" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S122" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T122" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -9323,16 +9323,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H123" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I123" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J123" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
@@ -9351,16 +9351,16 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R123" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S123" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T123" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
@@ -9394,16 +9394,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H124" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I124" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J124" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
@@ -9422,16 +9422,16 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R124" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S124" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T124" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
@@ -9465,16 +9465,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I125" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J125" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
@@ -9493,16 +9493,16 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S125" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T125" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
@@ -9536,16 +9536,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H126" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I126" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J126" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -9570,16 +9570,16 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R126" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S126" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T126" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
@@ -9613,16 +9613,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I127" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J127" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
@@ -9641,16 +9641,16 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R127" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S127" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T127" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
@@ -9684,16 +9684,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H128" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I128" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J128" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R128" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S128" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T128" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
@@ -9755,16 +9755,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H129" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I129" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J129" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
@@ -9783,16 +9783,16 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R129" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S129" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T129" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
@@ -9826,16 +9826,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I130" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J130" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
@@ -9854,16 +9854,16 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S130" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T130" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
@@ -9897,16 +9897,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H131" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I131" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J131" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
@@ -9925,16 +9925,16 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R131" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S131" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T131" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
@@ -9968,16 +9968,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H132" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I132" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J132" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
@@ -9996,16 +9996,16 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R132" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S132" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T132" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
@@ -10039,16 +10039,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H133" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I133" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J133" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
@@ -10067,16 +10067,16 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R133" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S133" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T133" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -10114,16 +10114,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H134" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I134" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J134" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -10148,16 +10148,16 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R134" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S134" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T134" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U134" t="inlineStr"/>
     </row>
@@ -10191,16 +10191,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I135" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J135" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
@@ -10219,16 +10219,16 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S135" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T135" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U135" t="inlineStr"/>
     </row>
@@ -10262,16 +10262,16 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I136" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J136" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
@@ -10290,16 +10290,16 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S136" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T136" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
@@ -10333,16 +10333,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H137" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I137" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J137" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
@@ -10361,16 +10361,16 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R137" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S137" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T137" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
@@ -10404,16 +10404,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I138" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J138" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -10438,16 +10438,16 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R138" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S138" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="T138" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
@@ -10481,16 +10481,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I139" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J139" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S139" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T139" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
@@ -10552,16 +10552,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H140" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I140" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J140" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R140" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S140" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T140" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
@@ -10629,16 +10629,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I141" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J141" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S141" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T141" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
@@ -10700,16 +10700,16 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I142" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J142" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
@@ -10728,16 +10728,16 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S142" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T142" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
@@ -10771,16 +10771,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H143" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I143" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J143" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
@@ -10799,16 +10799,16 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R143" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S143" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T143" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
@@ -10842,16 +10842,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H144" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I144" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J144" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -10876,16 +10876,16 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R144" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S144" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T144" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
@@ -10919,16 +10919,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H145" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I145" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J145" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
@@ -10947,16 +10947,16 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R145" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S145" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T145" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
@@ -10990,16 +10990,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I146" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J146" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
@@ -11018,16 +11018,16 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S146" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T146" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>
@@ -11061,16 +11061,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H147" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I147" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J147" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
@@ -11089,16 +11089,16 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R147" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S147" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T147" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U147" t="inlineStr"/>
     </row>
@@ -11132,16 +11132,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H148" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I148" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J148" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
@@ -11160,16 +11160,16 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R148" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S148" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T148" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U148" t="inlineStr"/>
     </row>
@@ -11203,16 +11203,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H149" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I149" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J149" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -11237,16 +11237,16 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R149" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S149" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T149" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U149" t="inlineStr"/>
     </row>
@@ -11280,16 +11280,16 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H150" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I150" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J150" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
@@ -11308,16 +11308,16 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R150" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S150" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T150" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
@@ -11351,16 +11351,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H151" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I151" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J151" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -11385,16 +11385,16 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R151" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S151" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="T151" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="U151" t="inlineStr"/>
     </row>
@@ -11428,16 +11428,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H152" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I152" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J152" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
@@ -11456,16 +11456,16 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R152" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S152" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T152" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U152" t="inlineStr"/>
     </row>
@@ -11499,16 +11499,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H153" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I153" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J153" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -11533,16 +11533,16 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R153" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S153" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="T153" t="n">
-        <v>19112500</v>
+        <v>13950000</v>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H154" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I154" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J154" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
@@ -11604,16 +11604,16 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R154" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S154" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T154" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U154" t="inlineStr"/>
     </row>
@@ -11647,16 +11647,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I155" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J155" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
@@ -11675,16 +11675,16 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S155" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T155" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U155" t="inlineStr"/>
     </row>
@@ -11718,16 +11718,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H156" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I156" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J156" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
@@ -11746,16 +11746,16 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R156" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S156" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T156" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U156" t="inlineStr"/>
     </row>
@@ -11789,16 +11789,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I157" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J157" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
@@ -11817,16 +11817,16 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S157" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T157" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U157" t="inlineStr"/>
     </row>
@@ -11860,16 +11860,16 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I158" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J158" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
@@ -11888,16 +11888,16 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S158" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T158" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U158" t="inlineStr"/>
     </row>
@@ -11931,16 +11931,16 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H159" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I159" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J159" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
@@ -11959,16 +11959,16 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R159" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S159" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T159" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U159" t="inlineStr"/>
     </row>
@@ -12002,16 +12002,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H160" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I160" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J160" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
@@ -12030,16 +12030,16 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R160" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S160" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T160" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U160" t="inlineStr"/>
     </row>
@@ -12073,16 +12073,16 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H161" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I161" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J161" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
@@ -12101,16 +12101,16 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R161" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S161" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T161" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U161" t="inlineStr"/>
     </row>
@@ -12144,16 +12144,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H162" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I162" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J162" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
@@ -12172,16 +12172,16 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R162" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S162" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T162" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U162" t="inlineStr"/>
     </row>
@@ -12215,16 +12215,16 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H163" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I163" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J163" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
@@ -12243,16 +12243,16 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R163" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S163" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T163" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U163" t="inlineStr"/>
     </row>
@@ -12286,16 +12286,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H164" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I164" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J164" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
@@ -12314,16 +12314,16 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R164" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S164" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T164" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U164" t="inlineStr"/>
     </row>
@@ -12357,31 +12357,23 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H165" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I165" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J165" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>0</v>
       </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>LIcencia rre especial aprobada por el directorio</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
           <t>No</t>
@@ -12393,16 +12385,16 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="R165" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="S165" t="n">
-        <v>16245625</v>
+        <v>15000000</v>
       </c>
       <c r="T165" t="n">
-        <v>16245625</v>
+        <v>15000000</v>
       </c>
       <c r="U165" t="inlineStr"/>
     </row>
@@ -12436,16 +12428,16 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I166" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J166" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
@@ -12464,16 +12456,16 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S166" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T166" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U166" t="inlineStr"/>
     </row>
@@ -12507,16 +12499,16 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I167" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J167" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
@@ -12535,16 +12527,16 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S167" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T167" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U167" t="inlineStr"/>
     </row>
@@ -12578,16 +12570,16 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H168" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I168" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J168" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -12612,16 +12604,16 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="R168" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S168" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="T168" t="n">
-        <v>27500000</v>
+        <v>18600000</v>
       </c>
       <c r="U168" t="inlineStr"/>
     </row>
@@ -12655,16 +12647,16 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H169" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I169" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J169" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
@@ -12683,16 +12675,16 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R169" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S169" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T169" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U169" t="inlineStr"/>
     </row>
@@ -12726,16 +12718,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H170" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I170" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J170" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
@@ -12754,16 +12746,16 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R170" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S170" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T170" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U170" t="inlineStr"/>
     </row>
@@ -12797,16 +12789,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H171" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I171" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J171" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
@@ -12825,16 +12817,16 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R171" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S171" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T171" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U171" t="inlineStr"/>
     </row>
@@ -12868,16 +12860,16 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I172" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J172" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -12902,16 +12894,16 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="R172" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="S172" t="n">
-        <v>16245625</v>
+        <v>12900000</v>
       </c>
       <c r="T172" t="n">
-        <v>16245625</v>
+        <v>12900000</v>
       </c>
       <c r="U172" t="inlineStr"/>
     </row>
@@ -12945,16 +12937,16 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I173" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J173" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
@@ -12973,16 +12965,16 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S173" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T173" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U173" t="inlineStr"/>
     </row>
@@ -13016,16 +13008,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I174" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J174" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
@@ -13044,16 +13036,16 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S174" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T174" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U174" t="inlineStr"/>
     </row>
@@ -13087,16 +13079,16 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I175" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J175" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -13121,16 +13113,16 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S175" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T175" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U175" t="inlineStr"/>
     </row>
@@ -13164,16 +13156,16 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I176" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J176" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
@@ -13192,16 +13184,16 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S176" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T176" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U176" t="inlineStr"/>
     </row>
@@ -13235,16 +13227,16 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I177" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J177" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
@@ -13263,16 +13255,16 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S177" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T177" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U177" t="inlineStr"/>
     </row>
@@ -13306,16 +13298,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H178" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I178" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J178" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
@@ -13334,16 +13326,16 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R178" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S178" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T178" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U178" t="inlineStr"/>
     </row>
@@ -13377,16 +13369,16 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H179" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I179" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J179" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
@@ -13405,16 +13397,16 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R179" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S179" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T179" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U179" t="inlineStr"/>
     </row>
@@ -13448,16 +13440,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I180" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J180" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
@@ -13476,16 +13468,16 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S180" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T180" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U180" t="inlineStr"/>
     </row>
@@ -13519,16 +13511,16 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H181" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I181" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J181" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -13553,16 +13545,16 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="R181" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="S181" t="n">
-        <v>16245625</v>
+        <v>11850000</v>
       </c>
       <c r="T181" t="n">
-        <v>16245625</v>
+        <v>11850000</v>
       </c>
       <c r="U181" t="inlineStr"/>
     </row>
@@ -13596,16 +13588,16 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H182" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I182" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J182" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -13630,16 +13622,16 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R182" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S182" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="U182" t="inlineStr"/>
     </row>
@@ -13673,16 +13665,16 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I183" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J183" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
@@ -13701,16 +13693,16 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S183" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T183" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U183" t="inlineStr"/>
     </row>
@@ -13744,16 +13736,16 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H184" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I184" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J184" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
@@ -13772,16 +13764,16 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R184" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S184" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T184" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U184" t="inlineStr"/>
     </row>
@@ -13815,16 +13807,16 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I185" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J185" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
@@ -13843,16 +13835,16 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S185" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T185" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U185" t="inlineStr"/>
     </row>
@@ -13886,16 +13878,16 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H186" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I186" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J186" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
@@ -13914,16 +13906,16 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R186" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S186" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T186" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U186" t="inlineStr"/>
     </row>
@@ -13957,16 +13949,16 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H187" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I187" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J187" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
@@ -13985,16 +13977,16 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R187" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S187" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T187" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U187" t="inlineStr"/>
     </row>
@@ -14028,16 +14020,16 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H188" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I188" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J188" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
@@ -14056,16 +14048,16 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R188" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S188" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="T188" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="U188" t="inlineStr"/>
     </row>
@@ -14099,16 +14091,16 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I189" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="J189" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
@@ -14127,16 +14119,16 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S189" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="T189" t="n">
-        <v>19112500</v>
+        <v>15000000</v>
       </c>
       <c r="U189" t="inlineStr"/>
     </row>
@@ -14170,16 +14162,16 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H190" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I190" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="J190" t="n">
-        <v>27500000</v>
+        <v>20000000</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -14204,16 +14196,16 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="R190" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="S190" t="n">
-        <v>23375000</v>
+        <v>17200000</v>
       </c>
       <c r="T190" t="n">
-        <v>23375000</v>
+        <v>17200000</v>
       </c>
       <c r="U190" t="inlineStr"/>
     </row>
@@ -14247,16 +14239,16 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H191" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I191" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J191" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -14281,16 +14273,16 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R191" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S191" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="T191" t="n">
-        <v>6000000</v>
+        <v>4650000</v>
       </c>
       <c r="U191" t="inlineStr"/>
     </row>
@@ -14324,16 +14316,16 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H192" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I192" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J192" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
@@ -14352,16 +14344,16 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R192" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S192" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T192" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U192" t="inlineStr"/>
     </row>
@@ -14395,16 +14387,16 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H193" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I193" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J193" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
@@ -14423,16 +14415,16 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R193" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S193" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T193" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U193" t="inlineStr"/>
     </row>
@@ -14466,16 +14458,16 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H194" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I194" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J194" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
@@ -14494,16 +14486,16 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R194" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S194" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T194" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U194" t="inlineStr"/>
     </row>
@@ -14537,16 +14529,16 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H195" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I195" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J195" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
@@ -14565,16 +14557,16 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R195" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S195" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T195" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U195" t="inlineStr"/>
     </row>
@@ -14608,16 +14600,16 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H196" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I196" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J196" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
@@ -14636,16 +14628,16 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R196" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S196" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="T196" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="U196" t="inlineStr"/>
     </row>
@@ -14679,16 +14671,16 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H197" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I197" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J197" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
@@ -14707,16 +14699,16 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R197" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S197" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T197" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U197" t="inlineStr"/>
     </row>
@@ -14750,16 +14742,16 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I198" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J198" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
@@ -14778,16 +14770,16 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S198" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T198" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U198" t="inlineStr"/>
     </row>
@@ -14821,16 +14813,16 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H199" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I199" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J199" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
@@ -14849,16 +14841,16 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R199" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S199" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T199" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U199" t="inlineStr"/>
     </row>
@@ -14892,16 +14884,16 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H200" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I200" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="J200" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
@@ -14920,16 +14912,16 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R200" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S200" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="T200" t="n">
-        <v>8575000</v>
+        <v>6000000</v>
       </c>
       <c r="U200" t="inlineStr"/>
     </row>

--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,8 +587,16 @@
       <c r="L2" t="n">
         <v>14</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Prueba 22223</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>No</t>
@@ -600,18 +608,22 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S2" t="n">
-        <v>4300000</v>
+        <v>3800000</v>
       </c>
       <c r="T2" t="n">
-        <v>4300000</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>3800000</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/data/export/nominas.xlsx
+++ b/data/export/nominas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,11 +656,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="S3" t="n">
-        <v>16000000</v>
+        <v>13000000</v>
       </c>
       <c r="T3" t="n">
-        <v>16000000</v>
+        <v>13000000</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
